--- a/RV32I/Controller.xlsx
+++ b/RV32I/Controller.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gfla\Documents\GitHub\RV32I\RV32I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24BE405-F7BC-4EC8-80EE-B55E6641781E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FA055B-614A-4BA5-83F7-2043ED06CE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="50">
   <si>
     <t>load</t>
     <phoneticPr fontId="1"/>
@@ -211,6 +211,14 @@
   </si>
   <si>
     <t>ddd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AddressSrc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f3(010) 1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -546,15 +554,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B7:T28"/>
+  <dimension ref="B7:U28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="7" spans="2:20">
+    <row r="7" spans="2:21">
       <c r="E7" t="s">
         <v>9</v>
       </c>
@@ -603,8 +611,11 @@
       <c r="T7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="2:20">
+      <c r="U7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -662,8 +673,11 @@
       <c r="T8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="2:20">
+      <c r="U8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -721,8 +735,11 @@
       <c r="T9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="2:20">
+      <c r="U9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21">
       <c r="B10" t="s">
         <v>2</v>
       </c>
@@ -780,8 +797,11 @@
       <c r="T10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:20">
+      <c r="U10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21">
       <c r="B11" t="s">
         <v>31</v>
       </c>
@@ -839,8 +859,11 @@
       <c r="T11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="2:20">
+      <c r="U11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21">
       <c r="B12" t="s">
         <v>3</v>
       </c>
@@ -898,8 +921,11 @@
       <c r="T12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="2:20">
+      <c r="U12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -957,8 +983,11 @@
       <c r="T13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="2:20">
+      <c r="U13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21">
       <c r="B14" t="s">
         <v>5</v>
       </c>
@@ -1016,8 +1045,11 @@
       <c r="T14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="2:20">
+      <c r="U14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21">
       <c r="B15" t="s">
         <v>6</v>
       </c>
@@ -1075,8 +1107,11 @@
       <c r="T15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="2:20">
+      <c r="U15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21">
       <c r="B16" t="s">
         <v>7</v>
       </c>
@@ -1134,8 +1169,11 @@
       <c r="T16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="2:20">
+      <c r="U16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21">
       <c r="B17" t="s">
         <v>8</v>
       </c>
@@ -1193,8 +1231,11 @@
       <c r="T17" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="2:20">
+      <c r="U17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21">
       <c r="B18" t="s">
         <v>33</v>
       </c>
@@ -1252,8 +1293,11 @@
       <c r="T18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="2:20">
+      <c r="U18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21">
       <c r="B19" t="s">
         <v>34</v>
       </c>
@@ -1311,8 +1355,11 @@
       <c r="T19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:20">
+      <c r="U19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21">
       <c r="B20" t="s">
         <v>38</v>
       </c>
@@ -1370,8 +1417,11 @@
       <c r="T20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="2:20">
+      <c r="U20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21">
       <c r="B21" t="s">
         <v>40</v>
       </c>
@@ -1429,8 +1479,11 @@
       <c r="T21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="2:20">
+      <c r="U21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21">
       <c r="B22" t="s">
         <v>42</v>
       </c>
@@ -1488,8 +1541,11 @@
       <c r="T22" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="2:20">
+      <c r="U22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21">
       <c r="B23" t="s">
         <v>46</v>
       </c>
@@ -1547,23 +1603,26 @@
       <c r="T23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="2:20">
+      <c r="U23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21">
       <c r="H24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="2:20">
+    <row r="25" spans="2:21">
       <c r="H25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="2:20">
+    <row r="26" spans="2:21">
       <c r="H26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="2:20">
+    <row r="27" spans="2:21">
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="2:20">
+    <row r="28" spans="2:21">
       <c r="H28" s="1"/>
     </row>
   </sheetData>
